--- a/result/geburtsjahrgangsstatistik.xlsx
+++ b/result/geburtsjahrgangsstatistik.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,7 +441,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>amtlicher gemeindeschlüssel</t>
+          <t>gemeindeschlüssel</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -476,874 +476,850 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr"/>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Altenstadt</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>06440001</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
       <c r="D2" t="n">
-        <v>61838</v>
+        <v>2605</v>
       </c>
       <c r="E2" t="n">
-        <v>76556</v>
+        <v>2991</v>
       </c>
       <c r="F2" t="n">
-        <v>185379</v>
+        <v>7343</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>33.36%</t>
+          <t>35.48%</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>41.3%</t>
+          <t>40.73%</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>06440001</t>
+          <t>Bad Nauheim</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>06440001</t>
+          <t>06440002</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>2605</v>
+        <v>4901</v>
       </c>
       <c r="E3" t="n">
-        <v>2991</v>
+        <v>7695</v>
       </c>
       <c r="F3" t="n">
-        <v>7343</v>
+        <v>15597</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>35.48%</t>
+          <t>31.42%</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>40.73%</t>
+          <t>49.34%</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>06440002</t>
+          <t>Bad Vilbel</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>06440002</t>
+          <t>06440003</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>4901</v>
+        <v>8525</v>
       </c>
       <c r="E4" t="n">
-        <v>7695</v>
+        <v>9427</v>
       </c>
       <c r="F4" t="n">
-        <v>15597</v>
+        <v>25264</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>31.42%</t>
+          <t>33.74%</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>49.34%</t>
+          <t>37.31%</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>06440003</t>
+          <t>Büdingen</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>06440003</t>
+          <t>06440004</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>8525</v>
+        <v>4382</v>
       </c>
       <c r="E5" t="n">
-        <v>9427</v>
+        <v>5341</v>
       </c>
       <c r="F5" t="n">
-        <v>25264</v>
+        <v>13241</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>33.74%</t>
+          <t>33.09%</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>37.31%</t>
+          <t>40.34%</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>06440004</t>
+          <t>Butzbach</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>06440004</t>
+          <t>06440005</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
-        <v>4382</v>
+        <v>5275</v>
       </c>
       <c r="E6" t="n">
-        <v>5341</v>
+        <v>6244</v>
       </c>
       <c r="F6" t="n">
-        <v>13241</v>
+        <v>16238</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>33.09%</t>
+          <t>32.49%</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>40.34%</t>
+          <t>38.45%</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>06440005</t>
+          <t>Echzell</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>06440005</t>
+          <t>06440006</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D7" t="n">
-        <v>5275</v>
+        <v>1109</v>
       </c>
       <c r="E7" t="n">
-        <v>6244</v>
+        <v>1391</v>
       </c>
       <c r="F7" t="n">
-        <v>16238</v>
+        <v>3188</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>32.49%</t>
+          <t>34.79%</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>38.45%</t>
+          <t>43.63%</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>06440006</t>
+          <t>Florstadt</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>06440006</t>
+          <t>06440007</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D8" t="n">
-        <v>1109</v>
+        <v>1658</v>
       </c>
       <c r="E8" t="n">
-        <v>1391</v>
+        <v>2239</v>
       </c>
       <c r="F8" t="n">
-        <v>3188</v>
+        <v>5147</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>34.79%</t>
+          <t>32.21%</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>43.63%</t>
+          <t>43.5%</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>06440007</t>
+          <t>Friedberg (Hessen)</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>06440007</t>
+          <t>06440008</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D9" t="n">
-        <v>1658</v>
+        <v>5580</v>
       </c>
       <c r="E9" t="n">
-        <v>2239</v>
+        <v>5635</v>
       </c>
       <c r="F9" t="n">
-        <v>5147</v>
+        <v>16982</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>32.21%</t>
+          <t>32.86%</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>43.5%</t>
+          <t>33.18%</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>06440008</t>
+          <t>Gedern</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>06440008</t>
+          <t>06440009</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" t="n">
-        <v>5580</v>
+        <v>1256</v>
       </c>
       <c r="E10" t="n">
-        <v>5635</v>
+        <v>1990</v>
       </c>
       <c r="F10" t="n">
-        <v>16982</v>
+        <v>3961</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>32.86%</t>
+          <t>31.71%</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>33.18%</t>
+          <t>50.24%</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>06440009</t>
+          <t>Glauburg</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>06440009</t>
+          <t>06440010</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D11" t="n">
-        <v>1256</v>
+        <v>561</v>
       </c>
       <c r="E11" t="n">
-        <v>1990</v>
+        <v>833</v>
       </c>
       <c r="F11" t="n">
-        <v>3961</v>
+        <v>1735</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>31.71%</t>
+          <t>32.33%</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>50.24%</t>
+          <t>48.01%</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>06440010</t>
+          <t>Hirzenhain</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>06440010</t>
+          <t>06440011</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D12" t="n">
-        <v>561</v>
+        <v>554</v>
       </c>
       <c r="E12" t="n">
-        <v>833</v>
+        <v>746</v>
       </c>
       <c r="F12" t="n">
-        <v>1735</v>
+        <v>1671</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>32.33%</t>
+          <t>33.15%</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>48.01%</t>
+          <t>44.64%</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>06440011</t>
+          <t>Karben</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>06440011</t>
+          <t>06440012</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D13" t="n">
-        <v>554</v>
+        <v>4590</v>
       </c>
       <c r="E13" t="n">
-        <v>746</v>
+        <v>5709</v>
       </c>
       <c r="F13" t="n">
-        <v>1671</v>
+        <v>13601</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>33.15%</t>
+          <t>33.75%</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>44.64%</t>
+          <t>41.97%</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>06440012</t>
+          <t>Kefenrod</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>06440012</t>
+          <t>06440013</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D14" t="n">
-        <v>4590</v>
+        <v>493</v>
       </c>
       <c r="E14" t="n">
-        <v>5709</v>
+        <v>707</v>
       </c>
       <c r="F14" t="n">
-        <v>13601</v>
+        <v>1506</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>33.75%</t>
+          <t>32.74%</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>41.97%</t>
+          <t>46.95%</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>06440013</t>
+          <t>Limeshain</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>06440013</t>
+          <t>06440014</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D15" t="n">
-        <v>493</v>
+        <v>1199</v>
       </c>
       <c r="E15" t="n">
-        <v>707</v>
+        <v>1317</v>
       </c>
       <c r="F15" t="n">
-        <v>1506</v>
+        <v>3330</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>32.74%</t>
+          <t>36.01%</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>46.95%</t>
+          <t>39.55%</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>06440014</t>
+          <t>Münzenberg</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>06440014</t>
+          <t>06440015</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D16" t="n">
-        <v>1199</v>
+        <v>1061</v>
       </c>
       <c r="E16" t="n">
-        <v>1317</v>
+        <v>1495</v>
       </c>
       <c r="F16" t="n">
-        <v>3330</v>
+        <v>3298</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>36.01%</t>
+          <t>32.17%</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>39.55%</t>
+          <t>45.33%</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>06440015</t>
+          <t>Nidda</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>06440015</t>
+          <t>06440016</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D17" t="n">
-        <v>1061</v>
+        <v>4088</v>
       </c>
       <c r="E17" t="n">
-        <v>1495</v>
+        <v>5447</v>
       </c>
       <c r="F17" t="n">
-        <v>3298</v>
+        <v>12774</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>32.17%</t>
+          <t>32.0%</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>45.33%</t>
+          <t>42.64%</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>06440016</t>
+          <t>Niddatal</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>06440016</t>
+          <t>06440017</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D18" t="n">
-        <v>4088</v>
+        <v>2040</v>
       </c>
       <c r="E18" t="n">
-        <v>5447</v>
+        <v>2383</v>
       </c>
       <c r="F18" t="n">
-        <v>12774</v>
+        <v>5548</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>32.0%</t>
+          <t>36.77%</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>42.64%</t>
+          <t>42.95%</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>06440017</t>
+          <t>Ober-Mörlen</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>06440017</t>
+          <t>06440018</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D19" t="n">
-        <v>2040</v>
+        <v>1098</v>
       </c>
       <c r="E19" t="n">
-        <v>2383</v>
+        <v>1482</v>
       </c>
       <c r="F19" t="n">
-        <v>5548</v>
+        <v>3329</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>36.77%</t>
+          <t>32.98%</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>42.95%</t>
+          <t>44.52%</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>06440018</t>
+          <t>Ortenberg</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>06440018</t>
+          <t>06440019</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D20" t="n">
-        <v>1098</v>
+        <v>1528</v>
       </c>
       <c r="E20" t="n">
-        <v>1482</v>
+        <v>2398</v>
       </c>
       <c r="F20" t="n">
-        <v>3329</v>
+        <v>4825</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>32.98%</t>
+          <t>31.67%</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>44.52%</t>
+          <t>49.7%</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>06440019</t>
+          <t>Ranstadt</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>06440019</t>
+          <t>06440020</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D21" t="n">
-        <v>1528</v>
+        <v>990</v>
       </c>
       <c r="E21" t="n">
-        <v>2398</v>
+        <v>1403</v>
       </c>
       <c r="F21" t="n">
-        <v>4825</v>
+        <v>2985</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>31.67%</t>
+          <t>33.17%</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>49.7%</t>
+          <t>47.0%</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>06440020</t>
+          <t>Reichelsheim (Wetterau)</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>06440020</t>
+          <t>06440021</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D22" t="n">
-        <v>990</v>
+        <v>1364</v>
       </c>
       <c r="E22" t="n">
-        <v>1403</v>
+        <v>1706</v>
       </c>
       <c r="F22" t="n">
-        <v>2985</v>
+        <v>4017</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>33.17%</t>
+          <t>33.96%</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>47.0%</t>
+          <t>42.47%</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>06440021</t>
+          <t>Rockenberg</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>06440021</t>
+          <t>06440022</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D23" t="n">
-        <v>1364</v>
+        <v>953</v>
       </c>
       <c r="E23" t="n">
-        <v>1706</v>
+        <v>1030</v>
       </c>
       <c r="F23" t="n">
-        <v>4017</v>
+        <v>2540</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>33.96%</t>
+          <t>37.52%</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>42.47%</t>
+          <t>40.55%</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>06440022</t>
+          <t>Rosbach v. d. Höhe</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>06440022</t>
+          <t>06440023</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D24" t="n">
-        <v>953</v>
+        <v>2863</v>
       </c>
       <c r="E24" t="n">
-        <v>1030</v>
+        <v>3016</v>
       </c>
       <c r="F24" t="n">
-        <v>2540</v>
+        <v>7723</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>37.52%</t>
+          <t>37.07%</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>40.55%</t>
+          <t>39.05%</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>06440023</t>
+          <t>Wölfersheim</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>06440023</t>
+          <t>06440024</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D25" t="n">
-        <v>2863</v>
+        <v>1854</v>
       </c>
       <c r="E25" t="n">
-        <v>3016</v>
+        <v>2406</v>
       </c>
       <c r="F25" t="n">
-        <v>7723</v>
+        <v>5544</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>37.07%</t>
+          <t>33.44%</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>39.05%</t>
+          <t>43.4%</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>06440024</t>
+          <t>Wöllstadt</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>06440024</t>
+          <t>06440025</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D26" t="n">
-        <v>1854</v>
+        <v>1316</v>
       </c>
       <c r="E26" t="n">
-        <v>2406</v>
+        <v>1522</v>
       </c>
       <c r="F26" t="n">
-        <v>5544</v>
+        <v>3992</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>33.44%</t>
+          <t>32.97%</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
-        <is>
-          <t>43.4%</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>06440025</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>06440025</t>
-        </is>
-      </c>
-      <c r="C27" t="n">
-        <v>25</v>
-      </c>
-      <c r="D27" t="n">
-        <v>1316</v>
-      </c>
-      <c r="E27" t="n">
-        <v>1522</v>
-      </c>
-      <c r="F27" t="n">
-        <v>3992</v>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>32.97%</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr">
         <is>
           <t>38.13%</t>
         </is>
